--- a/Calculators/DriveCalculators.xlsx
+++ b/Calculators/DriveCalculators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87268493f6bd3303/FIRST Robotics/FTC/2023/2023CompetitionCode/Calculators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gweaver/Documents/GitHub/2023CompetitionCode/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{601F7803-5052-42E3-BCCF-EB5022C3F224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CB58DD-76CD-4699-B8DD-3BE46F5D7E88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28265903-7675-194A-8C4D-21D76C228538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8775" yWindow="3953" windowWidth="15390" windowHeight="9532" xr2:uid="{10FBA7F1-CCF1-468D-B0AD-B0C42B5651D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{10FBA7F1-CCF1-468D-B0AD-B0C42B5651D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,6 +138,12 @@
   <dxfs count="10">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -148,12 +154,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -198,8 +198,8 @@
     </tableColumn>
     <tableColumn id="2" xr3:uid="{02256143-EFDA-41BA-A4C8-616D5E32ED24}" name="y"/>
     <tableColumn id="3" xr3:uid="{9CB64830-D21B-4A0A-A0F9-02D0A0E9CEF6}" name="r"/>
-    <tableColumn id="4" xr3:uid="{4B6CBEE4-C1A1-485C-ADF3-D92FB8AF7A9D}" name="angle (rad)" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{4B6CBEE4-C1A1-485C-ADF3-D92FB8AF7A9D}" name="angle (rad)" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{49610485-E942-459E-902C-2C40D308D780}" name="angle(deg)">
       <calculatedColumnFormula>DEGREES(D3)</calculatedColumnFormula>
@@ -207,25 +207,25 @@
     <tableColumn id="6" xr3:uid="{A973002B-8709-42CF-A22B-76F79762E79E}" name="power" dataDxfId="1">
       <calculatedColumnFormula>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5A64E62E-3808-445E-B532-50942B7199BC}" name="sine" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{5A64E62E-3808-445E-B532-50942B7199BC}" name="sine" dataDxfId="8">
       <calculatedColumnFormula>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5F00C050-F458-4DF0-BB60-4B013248C1FB}" name="cosine" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{5F00C050-F458-4DF0-BB60-4B013248C1FB}" name="cosine" dataDxfId="7">
       <calculatedColumnFormula>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1F7D99E3-E275-4B5C-8F49-46424532FB14}" name="scale" dataDxfId="8">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{1F7D99E3-E275-4B5C-8F49-46424532FB14}" name="scale" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{30D0FF8E-0A3D-4806-B6A3-697EE7BE28F2}" name="FR" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{30D0FF8E-0A3D-4806-B6A3-697EE7BE28F2}" name="FR" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D7BC9106-ABB6-49F0-B6B3-A0F8015FC3DD}" name="RR" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{D7BC9106-ABB6-49F0-B6B3-A0F8015FC3DD}" name="RR" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BC1F8BF5-F168-4BF9-9E71-5FC6C69E70EF}" name="RL" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{BC1F8BF5-F168-4BF9-9E71-5FC6C69E70EF}" name="RL" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5ACB08DD-7B1B-4FBB-8BA4-71B1E35D9EC2}" name="FL" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{5ACB08DD-7B1B-4FBB-8BA4-71B1E35D9EC2}" name="FL" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -532,22 +532,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977DA768-6053-4ABF-8254-DA16347D073B}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.53125" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" customWidth="1"/>
-    <col min="6" max="8" width="11.53125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.53125" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="2" customWidth="1"/>
+    <col min="11" max="13" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -599,9 +599,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>Table1[[#This Row],[y]]</f>
         <v>-1</v>
       </c>
       <c r="B3">
@@ -611,12 +610,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E3">
         <f>DEGREES(D3)</f>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F3" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -624,34 +623,34 @@
       </c>
       <c r="G3" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
         <v>0.70710678118654746</v>
       </c>
       <c r="J3" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="K3" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.9</v>
@@ -663,12 +662,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E23" si="0">DEGREES(D4)</f>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F4" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -676,34 +675,34 @@
       </c>
       <c r="G4" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
         <v>0.78567420131838617</v>
       </c>
       <c r="J4" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="K4" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="L4" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.8</v>
@@ -715,12 +714,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F5" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -728,34 +727,34 @@
       </c>
       <c r="G5" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
         <v>0.88388347648318422</v>
       </c>
       <c r="J5" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.7</v>
@@ -767,12 +766,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F6" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -780,34 +779,34 @@
       </c>
       <c r="G6" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.0101525445522108</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J6" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.69999999999999984</v>
       </c>
       <c r="K6" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.69999999999999984</v>
       </c>
       <c r="L6" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.69999999999999984</v>
       </c>
       <c r="M6" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-0.69999999999999984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.6</v>
@@ -819,12 +818,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F7" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -832,34 +831,34 @@
       </c>
       <c r="G7" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.1785113019775793</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J7" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.6</v>
       </c>
       <c r="K7" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.6</v>
       </c>
       <c r="L7" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.6</v>
       </c>
       <c r="M7" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.5</v>
@@ -871,12 +870,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F8" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -884,34 +883,34 @@
       </c>
       <c r="G8" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.4142135623730949</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J8" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.5</v>
       </c>
       <c r="K8" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.5</v>
       </c>
       <c r="L8" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.5</v>
       </c>
       <c r="M8" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.4</v>
@@ -923,12 +922,12 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F9" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -936,34 +935,34 @@
       </c>
       <c r="G9" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.7677669529663684</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J9" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.4</v>
       </c>
       <c r="K9" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.4</v>
       </c>
       <c r="L9" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.4</v>
       </c>
       <c r="M9" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.3</v>
@@ -975,12 +974,12 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F10" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -988,34 +987,34 @@
       </c>
       <c r="G10" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>2.3570226039551585</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J10" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.3</v>
       </c>
       <c r="K10" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.3</v>
       </c>
       <c r="L10" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.3</v>
       </c>
       <c r="M10" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.2</v>
@@ -1027,12 +1026,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F11" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1040,34 +1039,34 @@
       </c>
       <c r="G11" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>3.5355339059327369</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J11" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.2</v>
       </c>
       <c r="K11" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.2</v>
       </c>
       <c r="L11" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.2</v>
       </c>
       <c r="M11" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>Table1[[#This Row],[y]]</f>
         <v>-0.1</v>
@@ -1079,12 +1078,12 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>-2.3561944901923448</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="F12" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1092,34 +1091,34 @@
       </c>
       <c r="G12" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>7.0710678118654737</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J12" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.1</v>
       </c>
       <c r="K12" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.1</v>
       </c>
       <c r="L12" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.1</v>
       </c>
       <c r="M12" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>Table1[[#This Row],[y]]</f>
         <v>0</v>
@@ -1131,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
         <v>0</v>
       </c>
       <c r="E13">
@@ -1151,8 +1150,8 @@
         <v>-0.70710678118654746</v>
       </c>
       <c r="I13" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.4142135623730951</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J13" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
@@ -1171,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.1</v>
@@ -1183,12 +1182,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F14" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1196,34 +1195,34 @@
       </c>
       <c r="G14" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.4142135623730951</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J14" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K14" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L14" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M14" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.2</v>
@@ -1235,12 +1234,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F15" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1248,34 +1247,34 @@
       </c>
       <c r="G15" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>3.5355339059327369</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J15" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K15" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M15" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.3</v>
@@ -1287,12 +1286,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F16" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1300,34 +1299,34 @@
       </c>
       <c r="G16" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>2.3570226039551585</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J16" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K16" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L16" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M16" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.4</v>
@@ -1339,12 +1338,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1352,34 +1351,34 @@
       </c>
       <c r="G17" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.7677669529663684</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J17" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K17" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L17" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M17" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.5</v>
@@ -1391,12 +1390,12 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F18" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1404,34 +1403,34 @@
       </c>
       <c r="G18" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.4142135623730949</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J18" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M18" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.6</v>
@@ -1443,12 +1442,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1456,34 +1455,34 @@
       </c>
       <c r="G19" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.1785113019775793</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J19" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K19" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L19" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M19" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.7</v>
@@ -1495,12 +1494,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F20" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1508,34 +1507,34 @@
       </c>
       <c r="G20" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
-        <v>1.0101525445522108</v>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
+        <v>0.70710678118654746</v>
       </c>
       <c r="J20" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="K20" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="L20" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="M20" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.69999999999999984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.8</v>
@@ -1547,12 +1546,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F21" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1560,34 +1559,34 @@
       </c>
       <c r="G21" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
         <v>0.88388347648318422</v>
       </c>
       <c r="J21" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>Table1[[#This Row],[y]]</f>
         <v>0.9</v>
@@ -1599,12 +1598,12 @@
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F22" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1612,34 +1611,34 @@
       </c>
       <c r="G22" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
         <v>0.78567420131838617</v>
       </c>
       <c r="J22" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>Table1[[#This Row],[y]]</f>
         <v>1</v>
@@ -1651,12 +1650,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <f>IFERROR(ATAN2(Table1[[#This Row],[x]],Table1[[#This Row],[y]]),0)</f>
-        <v>0.78539816339744828</v>
+        <f>IFERROR(ATAN2(-Table1[[#This Row],[y]],Table1[[#This Row],[x]]),0)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F23" s="1">
         <f>SQRT(Table1[[#This Row],[x]]^2+Table1[[#This Row],[y]]^2)</f>
@@ -1664,31 +1663,31 @@
       </c>
       <c r="G23" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <f>SIN(Table1[[#This Row],[angle (rad)]]-PI()/4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[angle (rad)]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),SQRT(2))</f>
+        <f>IF(Table1[[#This Row],[power]]+ABS(Table1[[#This Row],[r]])&gt;1,1/(Table1[[#This Row],[power]]+Table1[[#This Row],[r]]),1/SQRT(2))</f>
         <v>0.70710678118654746</v>
       </c>
       <c r="J23" s="2">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]-Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[sine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1">
         <f>Table1[[#This Row],[scale]]*(Table1[[#This Row],[power]]*Table1[[#This Row],[cosine]]+Table1[[#This Row],[r]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Calculators/DriveCalculators.xlsx
+++ b/Calculators/DriveCalculators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gweaver/Documents/GitHub/2023CompetitionCode/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28265903-7675-194A-8C4D-21D76C228538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BE6318-52A3-8A43-BE07-751FA247A7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{10FBA7F1-CCF1-468D-B0AD-B0C42B5651D8}"/>
+    <workbookView xWindow="1320" yWindow="940" windowWidth="27620" windowHeight="16660" xr2:uid="{10FBA7F1-CCF1-468D-B0AD-B0C42B5651D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
